--- a/varselect/simulations/simulation10.xlsx
+++ b/varselect/simulations/simulation10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,33 +393,226 @@
           <t>treatment se</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bias^2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.033</v>
+        <v>0.025</v>
       </c>
       <c r="C2">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <v>0.048</v>
+        <v>0.03</v>
+      </c>
+      <c r="E2">
+        <v>0.077</v>
+      </c>
+      <c r="F2">
+        <v>0.077</v>
+      </c>
+      <c r="G2">
+        <v>0.121</v>
+      </c>
+      <c r="H2">
+        <v>0.005</v>
+      </c>
+      <c r="I2">
+        <v>0.002</v>
+      </c>
+      <c r="J2">
+        <v>0.027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>0.007</v>
+      </c>
+      <c r="B3">
+        <v>0.025</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.08</v>
+      </c>
+      <c r="G3">
+        <v>0.12</v>
+      </c>
+      <c r="H3">
         <v>0.004</v>
       </c>
-      <c r="B3">
+      <c r="I3">
+        <v>0.002</v>
+      </c>
+      <c r="J3">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.004</v>
+      </c>
+      <c r="B4">
+        <v>0.026</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.054</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>0.079</v>
+      </c>
+      <c r="G4">
+        <v>0.078</v>
+      </c>
+      <c r="H4">
+        <v>0.006</v>
+      </c>
+      <c r="I4">
+        <v>0.002</v>
+      </c>
+      <c r="J4">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.002</v>
+      </c>
+      <c r="B5">
         <v>0.034</v>
       </c>
-      <c r="C3">
-        <v>0.015</v>
-      </c>
-      <c r="D3">
-        <v>0.064</v>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>0.048</v>
+      </c>
+      <c r="H5">
+        <v>0.006</v>
+      </c>
+      <c r="I5">
+        <v>0.003</v>
+      </c>
+      <c r="J5">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.004</v>
+      </c>
+      <c r="B6">
+        <v>0.034</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.061</v>
+      </c>
+      <c r="H6">
+        <v>0.005</v>
+      </c>
+      <c r="I6">
+        <v>0.002</v>
+      </c>
+      <c r="J6">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.002</v>
+      </c>
+      <c r="B7">
+        <v>0.035</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.053</v>
+      </c>
+      <c r="E7">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.08</v>
+      </c>
+      <c r="G7">
+        <v>0.182</v>
+      </c>
+      <c r="H7">
+        <v>0.006</v>
+      </c>
+      <c r="I7">
+        <v>0.003</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.002</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.046</v>
+      </c>
+      <c r="E8">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.081</v>
+      </c>
+      <c r="G8">
+        <v>0.182</v>
+      </c>
+      <c r="H8">
+        <v>0.005</v>
+      </c>
+      <c r="I8">
+        <v>0.003</v>
+      </c>
+      <c r="J8">
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
